--- a/data/trans_dic/P1804_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1804_2016_2023-Habitat-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.04506215218493213</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03569176810502731</v>
+        <v>0.03569176810502732</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06588455333379246</v>
@@ -624,7 +624,7 @@
         <v>0.05545820301626308</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05078780261367888</v>
+        <v>0.0507878026136789</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03065509465444605</v>
+        <v>0.03074725398895602</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02238381271208081</v>
+        <v>0.02111064012817021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04922137067126933</v>
+        <v>0.04914597137581517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04938644352035818</v>
+        <v>0.0494060275808944</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04417864275147682</v>
+        <v>0.04398535189807094</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04001502500521611</v>
+        <v>0.03962229932737976</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06384068626141388</v>
+        <v>0.06382553935478856</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05996088274627871</v>
+        <v>0.06146850983570597</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08655145469053441</v>
+        <v>0.08811190125285621</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08586709414033884</v>
+        <v>0.08623539839038322</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06883550795966528</v>
+        <v>0.06849021753933085</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06560634135560617</v>
+        <v>0.0687264768383385</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.05678307163072372</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.08483953677473936</v>
+        <v>0.08483953677473935</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.087120833245696</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0428774308706845</v>
+        <v>0.04319369545747427</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0638445219722521</v>
+        <v>0.06422561843780616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07147737873828305</v>
+        <v>0.07146335101824162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07348198028134313</v>
+        <v>0.07455773604037924</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0616120146711405</v>
+        <v>0.06144807704066253</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07477212744099207</v>
+        <v>0.07389903143226664</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07139547358066574</v>
+        <v>0.0723627773237064</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1069750208302988</v>
+        <v>0.1073070261426086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1070534354415215</v>
+        <v>0.1085012327655145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1074943671579498</v>
+        <v>0.1063597569898393</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08386491534240116</v>
+        <v>0.08457067451561236</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1014358794671651</v>
+        <v>0.1014195929360744</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.1157102845826698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06144536636151365</v>
+        <v>0.06144536636151364</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0847631037714253</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03795665619391552</v>
+        <v>0.0393334442241131</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02008477345836079</v>
+        <v>0.02019303424332843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09338701766719401</v>
+        <v>0.09438381319316559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04773401248471394</v>
+        <v>0.04824699268035432</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07129018070646836</v>
+        <v>0.07156103669476836</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03692009836353221</v>
+        <v>0.03680070831265837</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07475998686534005</v>
+        <v>0.07425056622117886</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04514822314793793</v>
+        <v>0.04579305079648995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1424318417417843</v>
+        <v>0.1406256416961789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0798502965372187</v>
+        <v>0.07884606252695221</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1004553277564784</v>
+        <v>0.1004627344442476</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05685789595831178</v>
+        <v>0.05673695201667805</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.09080596151226596</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08133796253634229</v>
+        <v>0.0813379625363423</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1206062985623366</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07417360165197349</v>
+        <v>0.07177151827579564</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06362836837049904</v>
+        <v>0.06526086093813477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1012740909740946</v>
+        <v>0.1006909662669609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0952701618922477</v>
+        <v>0.09700045880731165</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09214315184130598</v>
+        <v>0.0934750452747439</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0857298077202563</v>
+        <v>0.08584281051205678</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.110273823423896</v>
+        <v>0.1107070275317263</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.100289098820068</v>
+        <v>0.1013982959653591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1439625981978733</v>
+        <v>0.1449084945091398</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1296032795769999</v>
+        <v>0.127752733048346</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1209379435124748</v>
+        <v>0.1238198192966338</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1105016002597204</v>
+        <v>0.1099974949193876</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.06295446880426407</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.061868615888674</v>
+        <v>0.06186861588867398</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.09928202700589622</v>
@@ -952,7 +952,7 @@
         <v>0.08151140115277844</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07387765353324641</v>
+        <v>0.07387765353324639</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05498043968550995</v>
+        <v>0.05441634966269449</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05360401741350358</v>
+        <v>0.05295980355964005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08871404516768384</v>
+        <v>0.08940515567537885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07637869879145576</v>
+        <v>0.07754675012758683</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0743235330691428</v>
+        <v>0.07502769803624165</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06792674201742223</v>
+        <v>0.0675868384995318</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0722923529680108</v>
+        <v>0.07112300757287141</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07325562295129187</v>
+        <v>0.07176252333667803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1100030629552872</v>
+        <v>0.1101466697517541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09352711328986898</v>
+        <v>0.09436385428623817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08815327363210426</v>
+        <v>0.08886110363964948</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08061414841294033</v>
+        <v>0.08047040195165273</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20686</v>
+        <v>20748</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15461</v>
+        <v>14581</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33118</v>
+        <v>33067</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36179</v>
+        <v>36194</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>59537</v>
+        <v>59276</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>56953</v>
+        <v>56394</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43080</v>
+        <v>43069</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41416</v>
+        <v>42457</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58235</v>
+        <v>59285</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62904</v>
+        <v>63174</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>92765</v>
+        <v>92300</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93376</v>
+        <v>97817</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>43839</v>
+        <v>44163</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>66968</v>
+        <v>67367</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>74545</v>
+        <v>74530</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>78687</v>
+        <v>79839</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>127250</v>
+        <v>126911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>158499</v>
+        <v>156648</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72997</v>
+        <v>73986</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>112208</v>
+        <v>112556</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111647</v>
+        <v>113157</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>115109</v>
+        <v>113894</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>173210</v>
+        <v>174668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>215019</v>
+        <v>214985</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28830</v>
+        <v>29876</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16130</v>
+        <v>16216</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>73310</v>
+        <v>74092</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38479</v>
+        <v>38893</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>110112</v>
+        <v>110531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>59412</v>
+        <v>59219</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56784</v>
+        <v>56397</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36257</v>
+        <v>36775</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111811</v>
+        <v>110393</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>64369</v>
+        <v>63559</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>155160</v>
+        <v>155171</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91495</v>
+        <v>91301</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69543</v>
+        <v>67291</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>62996</v>
+        <v>64612</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>105708</v>
+        <v>105099</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>106546</v>
+        <v>108481</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>182567</v>
+        <v>185206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>180754</v>
+        <v>180993</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103389</v>
+        <v>103795</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>99292</v>
+        <v>100391</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>150265</v>
+        <v>151252</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144943</v>
+        <v>142873</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>239620</v>
+        <v>245330</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>232984</v>
+        <v>231921</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>186623</v>
+        <v>184708</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>189370</v>
+        <v>187094</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>314451</v>
+        <v>316900</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>284731</v>
+        <v>289086</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>515723</v>
+        <v>520609</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>493192</v>
+        <v>490724</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>245386</v>
+        <v>241416</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>258795</v>
+        <v>253520</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>389910</v>
+        <v>390419</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>348659</v>
+        <v>351778</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>611686</v>
+        <v>616598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>585311</v>
+        <v>584268</v>
       </c>
     </row>
     <row r="24">
